--- a/Final Images/BI_Summary.xlsx
+++ b/Final Images/BI_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snorb\PycharmProjects\Implantatum_osseointegration\Final Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73B784-0E22-4BF2-9CD7-EBD013E9732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DB3DAC-1424-4DC8-8EDF-B0E6795B0FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,11 +626,17 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.6835</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.67530000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -660,6 +666,9 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19" s="1">
+        <v>0.54179999999999995</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -673,6 +682,9 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" s="1">
+        <v>0.90669999999999995</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -694,6 +706,9 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" s="1">
+        <v>0.71140000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -715,11 +730,17 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" s="1">
+        <v>0.72440000000000004</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28" s="1">
+        <v>0.67120000000000002</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -821,6 +842,9 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41" s="1">
+        <v>0.60960000000000003</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -834,6 +858,9 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43" s="1">
+        <v>0.67600000000000005</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -854,6 +881,9 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
